--- a/models3/筛查重构+分类_excels2/筛查重构+分类-100.xlsx
+++ b/models3/筛查重构+分类_excels2/筛查重构+分类-100.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PyCharm 2022.2.1\pythonProject\NIRModel\models3\筛查重构+分类_excels2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6292E32-90C0-49DA-B470-F1FFF9EA36FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FF843D-1198-44F4-83FB-1CEC4A239A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -757,10 +757,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B2">
-        <v>7.2454779001418501E-5</v>
+        <v>1.19285448363371E-6</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -771,24 +771,24 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B3">
-        <v>0.98912793397903442</v>
+        <v>2.738820512604434E-6</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B4">
-        <v>1.5780746936798099E-2</v>
+        <v>3.790447408391628E-6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -799,52 +799,52 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>0.91275715827941895</v>
+        <v>9.167661119136028E-6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.58154964447021484</v>
+        <v>1.043117481458467E-5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B7">
-        <v>0.99365860223770142</v>
+        <v>1.8639619156601839E-5</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B8">
-        <v>3.8110114634037018E-2</v>
+        <v>2.0005949409096498E-5</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -855,10 +855,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>5.8427844196557999E-2</v>
+        <v>3.7360667192842811E-5</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>5.5982191115617752E-2</v>
+        <v>4.9027628847397857E-5</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -883,24 +883,24 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B11">
-        <v>0.95071649551391602</v>
+        <v>6.5871361584868282E-5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <v>4.9027628847397857E-5</v>
+        <v>7.233383075799793E-5</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>3.7360667192842811E-5</v>
+        <v>7.2454779001418501E-5</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -925,24 +925,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="B14">
-        <v>1.043117481458467E-5</v>
+        <v>8.2326158008072525E-5</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>6.1423395527526736E-4</v>
+        <v>1.422788773197681E-4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="B16">
-        <v>2.2959720809012651E-3</v>
+        <v>1.519166544312611E-4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -967,24 +967,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B17">
-        <v>0.98268014192581177</v>
+        <v>1.929764111991972E-4</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B18">
-        <v>1.422788773197681E-4</v>
+        <v>2.0430579024832701E-4</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -995,24 +995,24 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B19">
-        <v>0.47530281543731689</v>
+        <v>2.4367898004129529E-4</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B20">
-        <v>0.38188484311103821</v>
+        <v>2.9880276997573668E-4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1023,41 +1023,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B21">
-        <v>0.28799352049827581</v>
+        <v>3.0465715099126101E-4</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>6.9557614624500266E-3</v>
+        <v>3.7146420800127089E-4</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>0.88788312673568726</v>
+        <v>6.1423395527526736E-4</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1079,13 +1079,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B25">
-        <v>0.99000239372253418</v>
+        <v>8.0012163380160928E-4</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1093,13 +1093,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B26">
-        <v>0.75977218151092529</v>
+        <v>1.1046996805816891E-3</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1107,27 +1107,27 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B27">
-        <v>0.96966242790222168</v>
+        <v>1.4657491119578481E-3</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B28">
-        <v>0.97507178783416748</v>
+        <v>1.467662048526108E-3</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B29">
-        <v>9.167661119136028E-6</v>
+        <v>1.908248639665544E-3</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1149,27 +1149,27 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="B30">
-        <v>3.797041485086083E-3</v>
+        <v>1.9778974819928412E-3</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="B31">
-        <v>0.90358924865722656</v>
+        <v>2.1756626665592189E-3</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1177,52 +1177,52 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>0.62735027074813843</v>
+        <v>2.2959720809012651E-3</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="B33">
-        <v>7.233383075799793E-5</v>
+        <v>2.3903399705886841E-3</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B34">
-        <v>0.79248416423797607</v>
+        <v>3.5931484308093791E-3</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>1.929764111991972E-4</v>
+        <v>3.797041485086083E-3</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1233,41 +1233,41 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B36">
-        <v>3.7146420800127089E-4</v>
+        <v>4.0759462863206863E-3</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>0.20346042513847351</v>
+        <v>6.9557614624500266E-3</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="B38">
-        <v>0.87614625692367554</v>
+        <v>9.0069854632019997E-3</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1275,24 +1275,24 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B39">
-        <v>8.0012163380160928E-4</v>
+        <v>1.0581266134977341E-2</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>2.9880276997573668E-4</v>
+        <v>1.5780746936798099E-2</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1303,16 +1303,16 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B41">
-        <v>0.2185884416103363</v>
+        <v>1.621712185442448E-2</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,10 +1331,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B43">
-        <v>6.5871361584868282E-5</v>
+        <v>3.0840601772069931E-2</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.97780472040176392</v>
+        <v>3.3470015972852707E-2</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1359,24 +1359,24 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>3.3470015972852707E-2</v>
+        <v>3.8110114634037018E-2</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B46">
-        <v>3.0465715099126101E-4</v>
+        <v>4.1185576468706131E-2</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="B47">
-        <v>1.4657491119578481E-3</v>
+        <v>4.5505870133638382E-2</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1401,10 +1401,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>2.0005949409096498E-5</v>
+        <v>5.5982191115617752E-2</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1415,83 +1415,83 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>0.99943214654922485</v>
+        <v>5.8427844196557999E-2</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="B50">
-        <v>0.99968123435974121</v>
+        <v>0.1132215261459351</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B51">
-        <v>0.99782782793045044</v>
+        <v>0.20346042513847351</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0.99999630451202393</v>
+        <v>0.2078159153461456</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B53">
-        <v>1.0581266134977341E-2</v>
+        <v>0.2185884416103363</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B54">
-        <v>0.98703265190124512</v>
+        <v>0.26006680727004999</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1499,13 +1499,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B55">
-        <v>0.9355933666229248</v>
+        <v>0.28472936153411871</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1513,13 +1513,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>2.4367898004129529E-4</v>
+        <v>0.58799352049827602</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1527,13 +1527,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="B57">
-        <v>0.99714785814285278</v>
+        <v>0.31327936053276062</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1541,24 +1541,24 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>0.99889475107192993</v>
+        <v>0.38188484311103821</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="B59">
-        <v>0.2078159153461456</v>
+        <v>0.44485181570053101</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1569,38 +1569,38 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B60">
-        <v>0.76289021968841553</v>
+        <v>0.47530281543731689</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B61">
-        <v>2.738820512604434E-6</v>
+        <v>0.58154964447021484</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B62">
-        <v>0.98768925666809082</v>
+        <v>0.62084764242172241</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -1611,13 +1611,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B63">
-        <v>0.71911638975143433</v>
+        <v>0.42735027074813797</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -1625,24 +1625,24 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B64">
-        <v>0.71799379587173462</v>
+        <v>0.43006508350372302</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B65">
-        <v>0.97164928913116455</v>
+        <v>0.68048810958862305</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -1653,69 +1653,69 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>0.99975591897964478</v>
+        <v>0.71799379587173462</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <v>0.99960321187973022</v>
+        <v>0.71911638975143433</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B68">
-        <v>1.8639619156601839E-5</v>
+        <v>0.75977218151092529</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B69">
-        <v>3.0840601772069931E-2</v>
+        <v>0.76289021968841553</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B70">
-        <v>2.1756626665592189E-3</v>
+        <v>0.79248416423797607</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1723,80 +1723,80 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B71">
-        <v>3.5931484308093791E-3</v>
+        <v>0.8061821460723877</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B72">
-        <v>0.9998929500579834</v>
+        <v>0.85276585817337036</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="B73">
-        <v>0.99575680494308472</v>
+        <v>0.87614625692367554</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="B74">
-        <v>0.91622591018676758</v>
+        <v>0.88788312673568726</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B75">
-        <v>0.99594861268997192</v>
+        <v>0.90358924865722656</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="B76">
-        <v>0.99989581108093262</v>
+        <v>0.91275715827941895</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -1807,10 +1807,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B77">
-        <v>0.99987077713012695</v>
+        <v>0.91622591018676758</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -1821,24 +1821,24 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B78">
-        <v>0.99943441152572632</v>
+        <v>0.91688245534896851</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="B79">
-        <v>0.99984383583068848</v>
+        <v>0.9355933666229248</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -1849,24 +1849,24 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B80">
-        <v>1.908248639665544E-3</v>
+        <v>0.94063794612884521</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B81">
-        <v>0.62084764242172241</v>
+        <v>0.95071649551391602</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -1877,27 +1877,27 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="B82">
-        <v>0.31327936053276062</v>
+        <v>0.96966242790222168</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B83">
-        <v>0.26006680727004999</v>
+        <v>0.97164928913116455</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="B84">
-        <v>0.68048810958862305</v>
+        <v>0.97507178783416748</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -1919,97 +1919,97 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B85">
-        <v>4.5505870133638382E-2</v>
+        <v>0.97780472040176392</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="B86">
-        <v>4.1185576468706131E-2</v>
+        <v>0.98268014192581177</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B87">
-        <v>0.99999165534973145</v>
+        <v>0.98703265190124512</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>1.467662048526108E-3</v>
+        <v>0.98740118741989136</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B89">
-        <v>0.85276585817337036</v>
+        <v>0.98768925666809082</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="B90">
-        <v>0.44485181570053101</v>
+        <v>0.98912793397903442</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B91">
-        <v>3.790447408391628E-6</v>
+        <v>0.99000239372253418</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2017,24 +2017,24 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B92">
-        <v>2.0430579024832701E-4</v>
+        <v>0.99365860223770142</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B93">
-        <v>0.98740118741989136</v>
+        <v>0.99575680494308472</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -2045,38 +2045,38 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B94">
-        <v>0.8061821460723877</v>
+        <v>0.99594861268997192</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="B95">
-        <v>8.2326158008072525E-5</v>
+        <v>0.99714785814285278</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="B96">
-        <v>0.99999380111694336</v>
+        <v>0.99782782793045044</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2087,10 +2087,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="B97">
-        <v>0.91688245534896851</v>
+        <v>0.99889475107192993</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -2101,13 +2101,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.28472936153411871</v>
+        <v>0.99900239706039429</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -2115,13 +2115,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="B99">
-        <v>2.3903399705886841E-3</v>
+        <v>0.99943214654922485</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2129,52 +2129,52 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B100">
-        <v>4.0759462863206863E-3</v>
+        <v>0.99943441152572632</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B101">
-        <v>1.1046996805816891E-3</v>
+        <v>0.99960321187973022</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B102">
-        <v>0.1132215261459351</v>
+        <v>0.99968123435974121</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="B103">
-        <v>0.63006508350372314</v>
+        <v>0.99975591897964478</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B104">
-        <v>0.99900239706039429</v>
+        <v>0.99984383583068848</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -2199,52 +2199,52 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B105">
-        <v>1.19285448363371E-6</v>
+        <v>0.99987077713012695</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B106">
-        <v>1.519166544312611E-4</v>
+        <v>0.9998929500579834</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B107">
-        <v>9.0069854632019997E-3</v>
+        <v>0.99989581108093262</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B108">
-        <v>0.94063794612884521</v>
+        <v>0.99999165534973145</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -2255,13 +2255,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B109">
-        <v>1.621712185442448E-2</v>
+        <v>0.99999380111694336</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -2269,19 +2269,22 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="B110">
-        <v>1.9778974819928412E-3</v>
+        <v>0.99999630451202393</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D110">
+    <sortCondition ref="B2:B110"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
